--- a/CommonBasicApplicationForNidecMES/ExportMoving.xlsx
+++ b/CommonBasicApplicationForNidecMES/ExportMoving.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VT CP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VT CP\mesVT\CommonBasicApplicationForNidecMES\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,45 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
-  <si>
-    <t>Công Ty Nidec COPAL</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t xml:space="preserve">Số: </t>
-  </si>
-  <si>
-    <t>300T/CĐ</t>
-  </si>
-  <si>
-    <t>Code Name</t>
-  </si>
-  <si>
-    <t>MOVING MACHINE FORM</t>
-  </si>
-  <si>
-    <t>MOVING</t>
-  </si>
-  <si>
-    <t>PAY</t>
-  </si>
-  <si>
-    <t>BRROW</t>
-  </si>
-  <si>
-    <t>REASY</t>
-  </si>
-  <si>
-    <t>reason_tranfer:</t>
-  </si>
-  <si>
-    <t>factory_tranfer_cd:</t>
-  </si>
-  <si>
-    <t>factory_received_cd:</t>
-  </si>
-  <si>
-    <t>NOTE INFORMATION</t>
   </si>
   <si>
     <t>STT</t>
@@ -83,17 +47,68 @@
     <t>COMMENTS</t>
   </si>
   <si>
-    <t>confirm_received</t>
+    <t>TỔNG CÔNG TY CP MAY VIỆT TIẾN</t>
   </si>
   <si>
-    <t>Date Time</t>
+    <t>…..</t>
+  </si>
+  <si>
+    <t>Mẫu số: 13/CĐ</t>
+  </si>
+  <si>
+    <t>Ban hành lần: 1/0</t>
+  </si>
+  <si>
+    <t>LỆNH ĐIỀU ĐỘNG KIÊM BIÊN BẢN NHẬN THIẾT BỊ</t>
+  </si>
+  <si>
+    <t>BÀN GIAO</t>
+  </si>
+  <si>
+    <t>MƯỢN</t>
+  </si>
+  <si>
+    <t>TRẢ</t>
+  </si>
+  <si>
+    <t>THUÊ</t>
+  </si>
+  <si>
+    <t>LÝ DO ĐIÊU ĐỘNG:</t>
+  </si>
+  <si>
+    <t>ĐIỀU TỪ ĐƠN VỊ:</t>
+  </si>
+  <si>
+    <t>ĐẾN  ĐƠN VỊ:</t>
+  </si>
+  <si>
+    <t>….</t>
+  </si>
+  <si>
+    <t>GIÁM ĐỊNH THIẾT BỊ VÀ PHỤ TÙNG KÈM THEO</t>
+  </si>
+  <si>
+    <t>NHẬN XÉT CỦA BÊN GIAO NHẬN:</t>
+  </si>
+  <si>
+    <t>Ngày</t>
+  </si>
+  <si>
+    <t>THÁNG</t>
+  </si>
+  <si>
+    <t>NĂM</t>
+  </si>
+  <si>
+    <t>ĐD BÊN NHẬN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,29 +117,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="25"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="30">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -192,86 +227,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -286,37 +241,6 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -374,32 +298,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thick">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -413,108 +315,64 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -795,181 +653,397 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ55"/>
+  <dimension ref="A1:AJ54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="17" width="2.7109375" style="1"/>
+    <col min="18" max="18" width="2.7109375" style="26"/>
+    <col min="19" max="16384" width="2.7109375" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="E3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="15"/>
+      <c r="AB3" s="15"/>
+      <c r="AC3" s="15"/>
+      <c r="AD3" s="15"/>
+      <c r="AE3" s="15"/>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="15"/>
+      <c r="AB4" s="15"/>
+      <c r="AC4" s="15"/>
+      <c r="AD4" s="15"/>
+      <c r="AE4" s="15"/>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1">
+        <v>6</v>
+      </c>
+      <c r="G5" s="1">
+        <v>7</v>
+      </c>
+      <c r="H5" s="1">
+        <v>8</v>
+      </c>
+      <c r="I5" s="1">
+        <v>9</v>
+      </c>
+      <c r="J5" s="1">
+        <v>10</v>
+      </c>
+      <c r="K5" s="1">
+        <v>11</v>
+      </c>
+      <c r="L5" s="1">
+        <v>12</v>
+      </c>
+      <c r="M5" s="1">
+        <v>13</v>
+      </c>
+      <c r="N5" s="1">
+        <v>14</v>
+      </c>
+      <c r="O5" s="1">
+        <v>15</v>
+      </c>
+      <c r="P5" s="1">
+        <v>16</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>17</v>
+      </c>
+      <c r="R5" s="26">
+        <v>18</v>
+      </c>
+      <c r="S5" s="1">
+        <v>19</v>
+      </c>
+      <c r="T5" s="1">
+        <v>20</v>
+      </c>
+      <c r="U5" s="1">
+        <v>21</v>
+      </c>
+      <c r="V5" s="1">
+        <v>22</v>
+      </c>
+      <c r="W5" s="1">
+        <v>23</v>
+      </c>
+      <c r="X5" s="1">
+        <v>24</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>25</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>26</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>27</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>28</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>29</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>30</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>31</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>32</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>33</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>34</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>35</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA6" s="24"/>
+      <c r="AB6" s="24"/>
+      <c r="AC6" s="25"/>
+      <c r="AD6" s="20"/>
+      <c r="AE6" s="21"/>
+    </row>
+    <row r="7" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="23"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="24"/>
+      <c r="AA7" s="24"/>
+      <c r="AB7" s="24"/>
+      <c r="AC7" s="25"/>
+      <c r="AD7" s="22"/>
+      <c r="AE7" s="23"/>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z11" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="3"/>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B14" s="16"/>
+      <c r="C14" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="E4" t="s">
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="16" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B6" s="38" t="s">
+      <c r="X14" s="16"/>
+      <c r="Y14" s="16"/>
+      <c r="Z14" s="16"/>
+      <c r="AA14" s="16"/>
+      <c r="AB14" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38" t="s">
+      <c r="AC14" s="16"/>
+      <c r="AD14" s="16"/>
+      <c r="AE14" s="16"/>
+      <c r="AF14" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="35"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA6" s="39"/>
-      <c r="AB6" s="31"/>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="34"/>
-      <c r="AE6" s="35"/>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="38"/>
-      <c r="T7" s="38"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="36"/>
-      <c r="W7" s="37"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="32"/>
-      <c r="AA7" s="40"/>
-      <c r="AB7" s="33"/>
-      <c r="AC7" s="4"/>
-      <c r="AD7" s="36"/>
-      <c r="AE7" s="37"/>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="V11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="28"/>
-      <c r="V14" s="26"/>
-      <c r="W14" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="X14" s="28"/>
-      <c r="Y14" s="28"/>
-      <c r="Z14" s="28"/>
-      <c r="AA14" s="26"/>
-      <c r="AB14" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC14" s="28"/>
-      <c r="AD14" s="28"/>
-      <c r="AE14" s="26"/>
-      <c r="AF14" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG14" s="28"/>
-      <c r="AH14" s="28"/>
-      <c r="AI14" s="28"/>
-      <c r="AJ14" s="29"/>
+      <c r="AG14" s="16"/>
+      <c r="AH14" s="16"/>
+      <c r="AI14" s="16"/>
+      <c r="AJ14" s="16"/>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="7"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -984,30 +1058,30 @@
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="6"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="19"/>
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
       <c r="U15" s="6"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="8"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="7"/>
       <c r="X15" s="6"/>
       <c r="Y15" s="6"/>
       <c r="Z15" s="6"/>
-      <c r="AA15" s="7"/>
-      <c r="AB15" s="8"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="7"/>
       <c r="AC15" s="6"/>
       <c r="AD15" s="6"/>
-      <c r="AE15" s="7"/>
-      <c r="AF15" s="8"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="7"/>
       <c r="AG15" s="6"/>
       <c r="AH15" s="6"/>
       <c r="AI15" s="6"/>
-      <c r="AJ15" s="10"/>
+      <c r="AJ15" s="8"/>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="7"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -1022,30 +1096,30 @@
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="6"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="19"/>
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="8"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="7"/>
       <c r="X16" s="6"/>
       <c r="Y16" s="6"/>
       <c r="Z16" s="6"/>
-      <c r="AA16" s="7"/>
-      <c r="AB16" s="8"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="7"/>
       <c r="AC16" s="6"/>
       <c r="AD16" s="6"/>
-      <c r="AE16" s="7"/>
-      <c r="AF16" s="8"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="7"/>
       <c r="AG16" s="6"/>
       <c r="AH16" s="6"/>
       <c r="AI16" s="6"/>
-      <c r="AJ16" s="10"/>
+      <c r="AJ16" s="8"/>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="7"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -1060,30 +1134,30 @@
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="6"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="19"/>
       <c r="S17" s="6"/>
       <c r="T17" s="6"/>
       <c r="U17" s="6"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="8"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="7"/>
       <c r="X17" s="6"/>
       <c r="Y17" s="6"/>
       <c r="Z17" s="6"/>
-      <c r="AA17" s="7"/>
-      <c r="AB17" s="8"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="7"/>
       <c r="AC17" s="6"/>
       <c r="AD17" s="6"/>
-      <c r="AE17" s="7"/>
-      <c r="AF17" s="8"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="7"/>
       <c r="AG17" s="6"/>
       <c r="AH17" s="6"/>
       <c r="AI17" s="6"/>
-      <c r="AJ17" s="10"/>
+      <c r="AJ17" s="8"/>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="7"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -1098,30 +1172,30 @@
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="6"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="19"/>
       <c r="S18" s="6"/>
       <c r="T18" s="6"/>
       <c r="U18" s="6"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="8"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="7"/>
       <c r="X18" s="6"/>
       <c r="Y18" s="6"/>
       <c r="Z18" s="6"/>
-      <c r="AA18" s="7"/>
-      <c r="AB18" s="8"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="7"/>
       <c r="AC18" s="6"/>
       <c r="AD18" s="6"/>
-      <c r="AE18" s="7"/>
-      <c r="AF18" s="8"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="7"/>
       <c r="AG18" s="6"/>
       <c r="AH18" s="6"/>
       <c r="AI18" s="6"/>
-      <c r="AJ18" s="10"/>
+      <c r="AJ18" s="8"/>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="7"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -1136,30 +1210,30 @@
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="6"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="19"/>
       <c r="S19" s="6"/>
       <c r="T19" s="6"/>
       <c r="U19" s="6"/>
-      <c r="V19" s="7"/>
-      <c r="W19" s="8"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="7"/>
       <c r="X19" s="6"/>
       <c r="Y19" s="6"/>
       <c r="Z19" s="6"/>
-      <c r="AA19" s="7"/>
-      <c r="AB19" s="8"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="7"/>
       <c r="AC19" s="6"/>
       <c r="AD19" s="6"/>
-      <c r="AE19" s="7"/>
-      <c r="AF19" s="8"/>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="7"/>
       <c r="AG19" s="6"/>
       <c r="AH19" s="6"/>
       <c r="AI19" s="6"/>
-      <c r="AJ19" s="10"/>
+      <c r="AJ19" s="8"/>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="7"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -1174,30 +1248,30 @@
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="6"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="19"/>
       <c r="S20" s="6"/>
       <c r="T20" s="6"/>
       <c r="U20" s="6"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="8"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="7"/>
       <c r="X20" s="6"/>
       <c r="Y20" s="6"/>
       <c r="Z20" s="6"/>
-      <c r="AA20" s="7"/>
-      <c r="AB20" s="8"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="7"/>
       <c r="AC20" s="6"/>
       <c r="AD20" s="6"/>
-      <c r="AE20" s="7"/>
-      <c r="AF20" s="8"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="7"/>
       <c r="AG20" s="6"/>
       <c r="AH20" s="6"/>
       <c r="AI20" s="6"/>
-      <c r="AJ20" s="10"/>
+      <c r="AJ20" s="8"/>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="7"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -1212,30 +1286,30 @@
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="6"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="19"/>
       <c r="S21" s="6"/>
       <c r="T21" s="6"/>
       <c r="U21" s="6"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="8"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="7"/>
       <c r="X21" s="6"/>
       <c r="Y21" s="6"/>
       <c r="Z21" s="6"/>
-      <c r="AA21" s="7"/>
-      <c r="AB21" s="8"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="7"/>
       <c r="AC21" s="6"/>
       <c r="AD21" s="6"/>
-      <c r="AE21" s="7"/>
-      <c r="AF21" s="8"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="7"/>
       <c r="AG21" s="6"/>
       <c r="AH21" s="6"/>
       <c r="AI21" s="6"/>
-      <c r="AJ21" s="10"/>
+      <c r="AJ21" s="8"/>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="7"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="5"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -1250,30 +1324,30 @@
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="6"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="19"/>
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
       <c r="U22" s="6"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="8"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="7"/>
       <c r="X22" s="6"/>
       <c r="Y22" s="6"/>
       <c r="Z22" s="6"/>
-      <c r="AA22" s="7"/>
-      <c r="AB22" s="8"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="7"/>
       <c r="AC22" s="6"/>
       <c r="AD22" s="6"/>
-      <c r="AE22" s="7"/>
-      <c r="AF22" s="8"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="7"/>
       <c r="AG22" s="6"/>
       <c r="AH22" s="6"/>
       <c r="AI22" s="6"/>
-      <c r="AJ22" s="10"/>
+      <c r="AJ22" s="8"/>
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="7"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -1288,30 +1362,30 @@
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="6"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="19"/>
       <c r="S23" s="6"/>
       <c r="T23" s="6"/>
       <c r="U23" s="6"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="8"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="7"/>
       <c r="X23" s="6"/>
       <c r="Y23" s="6"/>
       <c r="Z23" s="6"/>
-      <c r="AA23" s="7"/>
-      <c r="AB23" s="8"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="7"/>
       <c r="AC23" s="6"/>
       <c r="AD23" s="6"/>
-      <c r="AE23" s="7"/>
-      <c r="AF23" s="8"/>
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="7"/>
       <c r="AG23" s="6"/>
       <c r="AH23" s="6"/>
       <c r="AI23" s="6"/>
-      <c r="AJ23" s="10"/>
+      <c r="AJ23" s="8"/>
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="7"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="5"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -1326,30 +1400,30 @@
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="6"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="19"/>
       <c r="S24" s="6"/>
       <c r="T24" s="6"/>
       <c r="U24" s="6"/>
-      <c r="V24" s="7"/>
-      <c r="W24" s="8"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="7"/>
       <c r="X24" s="6"/>
       <c r="Y24" s="6"/>
       <c r="Z24" s="6"/>
-      <c r="AA24" s="7"/>
-      <c r="AB24" s="8"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="7"/>
       <c r="AC24" s="6"/>
       <c r="AD24" s="6"/>
-      <c r="AE24" s="7"/>
-      <c r="AF24" s="8"/>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="7"/>
       <c r="AG24" s="6"/>
       <c r="AH24" s="6"/>
       <c r="AI24" s="6"/>
-      <c r="AJ24" s="10"/>
+      <c r="AJ24" s="8"/>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="7"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -1364,30 +1438,30 @@
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="6"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="19"/>
       <c r="S25" s="6"/>
       <c r="T25" s="6"/>
       <c r="U25" s="6"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="8"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="7"/>
       <c r="X25" s="6"/>
       <c r="Y25" s="6"/>
       <c r="Z25" s="6"/>
-      <c r="AA25" s="7"/>
-      <c r="AB25" s="8"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="7"/>
       <c r="AC25" s="6"/>
       <c r="AD25" s="6"/>
-      <c r="AE25" s="7"/>
-      <c r="AF25" s="8"/>
+      <c r="AE25" s="5"/>
+      <c r="AF25" s="7"/>
       <c r="AG25" s="6"/>
       <c r="AH25" s="6"/>
       <c r="AI25" s="6"/>
-      <c r="AJ25" s="10"/>
+      <c r="AJ25" s="8"/>
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="7"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="5"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
@@ -1402,30 +1476,30 @@
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="6"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="19"/>
       <c r="S26" s="6"/>
       <c r="T26" s="6"/>
       <c r="U26" s="6"/>
-      <c r="V26" s="7"/>
-      <c r="W26" s="8"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="7"/>
       <c r="X26" s="6"/>
       <c r="Y26" s="6"/>
       <c r="Z26" s="6"/>
-      <c r="AA26" s="7"/>
-      <c r="AB26" s="8"/>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="7"/>
       <c r="AC26" s="6"/>
       <c r="AD26" s="6"/>
-      <c r="AE26" s="7"/>
-      <c r="AF26" s="8"/>
+      <c r="AE26" s="5"/>
+      <c r="AF26" s="7"/>
       <c r="AG26" s="6"/>
       <c r="AH26" s="6"/>
       <c r="AI26" s="6"/>
-      <c r="AJ26" s="10"/>
+      <c r="AJ26" s="8"/>
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="7"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="5"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
@@ -1440,30 +1514,30 @@
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="6"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="19"/>
       <c r="S27" s="6"/>
       <c r="T27" s="6"/>
       <c r="U27" s="6"/>
-      <c r="V27" s="7"/>
-      <c r="W27" s="8"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="7"/>
       <c r="X27" s="6"/>
       <c r="Y27" s="6"/>
       <c r="Z27" s="6"/>
-      <c r="AA27" s="7"/>
-      <c r="AB27" s="8"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="7"/>
       <c r="AC27" s="6"/>
       <c r="AD27" s="6"/>
-      <c r="AE27" s="7"/>
-      <c r="AF27" s="8"/>
+      <c r="AE27" s="5"/>
+      <c r="AF27" s="7"/>
       <c r="AG27" s="6"/>
       <c r="AH27" s="6"/>
       <c r="AI27" s="6"/>
-      <c r="AJ27" s="10"/>
+      <c r="AJ27" s="8"/>
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="7"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="5"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -1478,30 +1552,30 @@
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="6"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="19"/>
       <c r="S28" s="6"/>
       <c r="T28" s="6"/>
       <c r="U28" s="6"/>
-      <c r="V28" s="7"/>
-      <c r="W28" s="8"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="7"/>
       <c r="X28" s="6"/>
       <c r="Y28" s="6"/>
       <c r="Z28" s="6"/>
-      <c r="AA28" s="7"/>
-      <c r="AB28" s="8"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="7"/>
       <c r="AC28" s="6"/>
       <c r="AD28" s="6"/>
-      <c r="AE28" s="7"/>
-      <c r="AF28" s="8"/>
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="7"/>
       <c r="AG28" s="6"/>
       <c r="AH28" s="6"/>
       <c r="AI28" s="6"/>
-      <c r="AJ28" s="10"/>
+      <c r="AJ28" s="8"/>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="7"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="5"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
@@ -1516,30 +1590,30 @@
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="6"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="19"/>
       <c r="S29" s="6"/>
       <c r="T29" s="6"/>
       <c r="U29" s="6"/>
-      <c r="V29" s="7"/>
-      <c r="W29" s="8"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="7"/>
       <c r="X29" s="6"/>
       <c r="Y29" s="6"/>
       <c r="Z29" s="6"/>
-      <c r="AA29" s="7"/>
-      <c r="AB29" s="8"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="7"/>
       <c r="AC29" s="6"/>
       <c r="AD29" s="6"/>
-      <c r="AE29" s="7"/>
-      <c r="AF29" s="8"/>
+      <c r="AE29" s="5"/>
+      <c r="AF29" s="7"/>
       <c r="AG29" s="6"/>
       <c r="AH29" s="6"/>
       <c r="AI29" s="6"/>
-      <c r="AJ29" s="10"/>
+      <c r="AJ29" s="8"/>
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="7"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="5"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -1554,30 +1628,30 @@
       <c r="N30" s="6"/>
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="6"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="19"/>
       <c r="S30" s="6"/>
       <c r="T30" s="6"/>
       <c r="U30" s="6"/>
-      <c r="V30" s="7"/>
-      <c r="W30" s="8"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="7"/>
       <c r="X30" s="6"/>
       <c r="Y30" s="6"/>
       <c r="Z30" s="6"/>
-      <c r="AA30" s="7"/>
-      <c r="AB30" s="8"/>
+      <c r="AA30" s="5"/>
+      <c r="AB30" s="7"/>
       <c r="AC30" s="6"/>
       <c r="AD30" s="6"/>
-      <c r="AE30" s="7"/>
-      <c r="AF30" s="8"/>
+      <c r="AE30" s="5"/>
+      <c r="AF30" s="7"/>
       <c r="AG30" s="6"/>
       <c r="AH30" s="6"/>
       <c r="AI30" s="6"/>
-      <c r="AJ30" s="10"/>
+      <c r="AJ30" s="8"/>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="7"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="5"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
@@ -1592,30 +1666,30 @@
       <c r="N31" s="6"/>
       <c r="O31" s="6"/>
       <c r="P31" s="6"/>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="6"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="19"/>
       <c r="S31" s="6"/>
       <c r="T31" s="6"/>
       <c r="U31" s="6"/>
-      <c r="V31" s="7"/>
-      <c r="W31" s="8"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="7"/>
       <c r="X31" s="6"/>
       <c r="Y31" s="6"/>
       <c r="Z31" s="6"/>
-      <c r="AA31" s="7"/>
-      <c r="AB31" s="8"/>
+      <c r="AA31" s="5"/>
+      <c r="AB31" s="7"/>
       <c r="AC31" s="6"/>
       <c r="AD31" s="6"/>
-      <c r="AE31" s="7"/>
-      <c r="AF31" s="8"/>
+      <c r="AE31" s="5"/>
+      <c r="AF31" s="7"/>
       <c r="AG31" s="6"/>
       <c r="AH31" s="6"/>
       <c r="AI31" s="6"/>
-      <c r="AJ31" s="10"/>
+      <c r="AJ31" s="8"/>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-      <c r="B32" s="7"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="5"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
@@ -1630,30 +1704,30 @@
       <c r="N32" s="6"/>
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="6"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="19"/>
       <c r="S32" s="6"/>
       <c r="T32" s="6"/>
       <c r="U32" s="6"/>
-      <c r="V32" s="7"/>
-      <c r="W32" s="8"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="7"/>
       <c r="X32" s="6"/>
       <c r="Y32" s="6"/>
       <c r="Z32" s="6"/>
-      <c r="AA32" s="7"/>
-      <c r="AB32" s="8"/>
+      <c r="AA32" s="5"/>
+      <c r="AB32" s="7"/>
       <c r="AC32" s="6"/>
       <c r="AD32" s="6"/>
-      <c r="AE32" s="7"/>
-      <c r="AF32" s="8"/>
+      <c r="AE32" s="5"/>
+      <c r="AF32" s="7"/>
       <c r="AG32" s="6"/>
       <c r="AH32" s="6"/>
       <c r="AI32" s="6"/>
-      <c r="AJ32" s="10"/>
+      <c r="AJ32" s="8"/>
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
-      <c r="B33" s="7"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="5"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -1668,30 +1742,30 @@
       <c r="N33" s="6"/>
       <c r="O33" s="6"/>
       <c r="P33" s="6"/>
-      <c r="Q33" s="8"/>
-      <c r="R33" s="6"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="19"/>
       <c r="S33" s="6"/>
       <c r="T33" s="6"/>
       <c r="U33" s="6"/>
-      <c r="V33" s="7"/>
-      <c r="W33" s="8"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="7"/>
       <c r="X33" s="6"/>
       <c r="Y33" s="6"/>
       <c r="Z33" s="6"/>
-      <c r="AA33" s="7"/>
-      <c r="AB33" s="8"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="7"/>
       <c r="AC33" s="6"/>
       <c r="AD33" s="6"/>
-      <c r="AE33" s="7"/>
-      <c r="AF33" s="8"/>
+      <c r="AE33" s="5"/>
+      <c r="AF33" s="7"/>
       <c r="AG33" s="6"/>
       <c r="AH33" s="6"/>
       <c r="AI33" s="6"/>
-      <c r="AJ33" s="10"/>
+      <c r="AJ33" s="8"/>
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
-      <c r="B34" s="7"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="5"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
@@ -1706,30 +1780,30 @@
       <c r="N34" s="6"/>
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
-      <c r="Q34" s="8"/>
-      <c r="R34" s="6"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="19"/>
       <c r="S34" s="6"/>
       <c r="T34" s="6"/>
       <c r="U34" s="6"/>
-      <c r="V34" s="7"/>
-      <c r="W34" s="8"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="7"/>
       <c r="X34" s="6"/>
       <c r="Y34" s="6"/>
       <c r="Z34" s="6"/>
-      <c r="AA34" s="7"/>
-      <c r="AB34" s="8"/>
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="7"/>
       <c r="AC34" s="6"/>
       <c r="AD34" s="6"/>
-      <c r="AE34" s="7"/>
-      <c r="AF34" s="8"/>
+      <c r="AE34" s="5"/>
+      <c r="AF34" s="7"/>
       <c r="AG34" s="6"/>
       <c r="AH34" s="6"/>
       <c r="AI34" s="6"/>
-      <c r="AJ34" s="10"/>
+      <c r="AJ34" s="8"/>
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
-      <c r="B35" s="7"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="5"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
@@ -1744,30 +1818,30 @@
       <c r="N35" s="6"/>
       <c r="O35" s="6"/>
       <c r="P35" s="6"/>
-      <c r="Q35" s="8"/>
-      <c r="R35" s="6"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="19"/>
       <c r="S35" s="6"/>
       <c r="T35" s="6"/>
       <c r="U35" s="6"/>
-      <c r="V35" s="7"/>
-      <c r="W35" s="8"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="7"/>
       <c r="X35" s="6"/>
       <c r="Y35" s="6"/>
       <c r="Z35" s="6"/>
-      <c r="AA35" s="7"/>
-      <c r="AB35" s="8"/>
+      <c r="AA35" s="5"/>
+      <c r="AB35" s="7"/>
       <c r="AC35" s="6"/>
       <c r="AD35" s="6"/>
-      <c r="AE35" s="7"/>
-      <c r="AF35" s="8"/>
+      <c r="AE35" s="5"/>
+      <c r="AF35" s="7"/>
       <c r="AG35" s="6"/>
       <c r="AH35" s="6"/>
       <c r="AI35" s="6"/>
-      <c r="AJ35" s="10"/>
+      <c r="AJ35" s="8"/>
     </row>
     <row r="36" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
-      <c r="B36" s="7"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="5"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
@@ -1782,30 +1856,30 @@
       <c r="N36" s="6"/>
       <c r="O36" s="6"/>
       <c r="P36" s="6"/>
-      <c r="Q36" s="8"/>
-      <c r="R36" s="6"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="19"/>
       <c r="S36" s="6"/>
       <c r="T36" s="6"/>
       <c r="U36" s="6"/>
-      <c r="V36" s="7"/>
-      <c r="W36" s="8"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="7"/>
       <c r="X36" s="6"/>
       <c r="Y36" s="6"/>
       <c r="Z36" s="6"/>
-      <c r="AA36" s="7"/>
-      <c r="AB36" s="8"/>
+      <c r="AA36" s="5"/>
+      <c r="AB36" s="7"/>
       <c r="AC36" s="6"/>
       <c r="AD36" s="6"/>
-      <c r="AE36" s="7"/>
-      <c r="AF36" s="8"/>
+      <c r="AE36" s="5"/>
+      <c r="AF36" s="7"/>
       <c r="AG36" s="6"/>
       <c r="AH36" s="6"/>
       <c r="AI36" s="6"/>
-      <c r="AJ36" s="10"/>
+      <c r="AJ36" s="8"/>
     </row>
     <row r="37" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A37" s="9"/>
-      <c r="B37" s="7"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="5"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
@@ -1820,30 +1894,30 @@
       <c r="N37" s="6"/>
       <c r="O37" s="6"/>
       <c r="P37" s="6"/>
-      <c r="Q37" s="8"/>
-      <c r="R37" s="6"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="19"/>
       <c r="S37" s="6"/>
       <c r="T37" s="6"/>
       <c r="U37" s="6"/>
-      <c r="V37" s="7"/>
-      <c r="W37" s="8"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="7"/>
       <c r="X37" s="6"/>
       <c r="Y37" s="6"/>
       <c r="Z37" s="6"/>
-      <c r="AA37" s="7"/>
-      <c r="AB37" s="8"/>
+      <c r="AA37" s="5"/>
+      <c r="AB37" s="7"/>
       <c r="AC37" s="6"/>
       <c r="AD37" s="6"/>
-      <c r="AE37" s="7"/>
-      <c r="AF37" s="8"/>
+      <c r="AE37" s="5"/>
+      <c r="AF37" s="7"/>
       <c r="AG37" s="6"/>
       <c r="AH37" s="6"/>
       <c r="AI37" s="6"/>
-      <c r="AJ37" s="10"/>
+      <c r="AJ37" s="8"/>
     </row>
     <row r="38" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A38" s="9"/>
-      <c r="B38" s="7"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="5"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
@@ -1858,30 +1932,30 @@
       <c r="N38" s="6"/>
       <c r="O38" s="6"/>
       <c r="P38" s="6"/>
-      <c r="Q38" s="8"/>
-      <c r="R38" s="6"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="19"/>
       <c r="S38" s="6"/>
       <c r="T38" s="6"/>
       <c r="U38" s="6"/>
-      <c r="V38" s="7"/>
-      <c r="W38" s="8"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="7"/>
       <c r="X38" s="6"/>
       <c r="Y38" s="6"/>
       <c r="Z38" s="6"/>
-      <c r="AA38" s="7"/>
-      <c r="AB38" s="8"/>
+      <c r="AA38" s="5"/>
+      <c r="AB38" s="7"/>
       <c r="AC38" s="6"/>
       <c r="AD38" s="6"/>
-      <c r="AE38" s="7"/>
-      <c r="AF38" s="8"/>
+      <c r="AE38" s="5"/>
+      <c r="AF38" s="7"/>
       <c r="AG38" s="6"/>
       <c r="AH38" s="6"/>
       <c r="AI38" s="6"/>
-      <c r="AJ38" s="10"/>
+      <c r="AJ38" s="8"/>
     </row>
     <row r="39" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A39" s="9"/>
-      <c r="B39" s="7"/>
+      <c r="A39" s="4"/>
+      <c r="B39" s="5"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -1896,286 +1970,606 @@
       <c r="N39" s="6"/>
       <c r="O39" s="6"/>
       <c r="P39" s="6"/>
-      <c r="Q39" s="8"/>
-      <c r="R39" s="6"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="19"/>
       <c r="S39" s="6"/>
       <c r="T39" s="6"/>
       <c r="U39" s="6"/>
-      <c r="V39" s="7"/>
-      <c r="W39" s="8"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="7"/>
       <c r="X39" s="6"/>
       <c r="Y39" s="6"/>
       <c r="Z39" s="6"/>
-      <c r="AA39" s="7"/>
-      <c r="AB39" s="8"/>
+      <c r="AA39" s="5"/>
+      <c r="AB39" s="7"/>
       <c r="AC39" s="6"/>
       <c r="AD39" s="6"/>
-      <c r="AE39" s="7"/>
-      <c r="AF39" s="8"/>
+      <c r="AE39" s="5"/>
+      <c r="AF39" s="7"/>
       <c r="AG39" s="6"/>
       <c r="AH39" s="6"/>
       <c r="AI39" s="6"/>
-      <c r="AJ39" s="10"/>
-    </row>
-    <row r="40" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="11"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="12"/>
-      <c r="O40" s="12"/>
-      <c r="P40" s="12"/>
-      <c r="Q40" s="15"/>
-      <c r="R40" s="12"/>
-      <c r="S40" s="12"/>
-      <c r="T40" s="12"/>
-      <c r="U40" s="12"/>
-      <c r="V40" s="14"/>
-      <c r="W40" s="15"/>
-      <c r="X40" s="12"/>
-      <c r="Y40" s="12"/>
-      <c r="Z40" s="12"/>
-      <c r="AA40" s="14"/>
-      <c r="AB40" s="15"/>
-      <c r="AC40" s="12"/>
-      <c r="AD40" s="12"/>
-      <c r="AE40" s="14"/>
-      <c r="AF40" s="15"/>
-      <c r="AG40" s="12"/>
-      <c r="AH40" s="12"/>
-      <c r="AI40" s="12"/>
-      <c r="AJ40" s="13"/>
-    </row>
-    <row r="41" spans="1:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="AJ39" s="8"/>
+    </row>
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="19"/>
+      <c r="S40" s="6"/>
+      <c r="T40" s="6"/>
+      <c r="U40" s="6"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="7"/>
+      <c r="X40" s="6"/>
+      <c r="Y40" s="6"/>
+      <c r="Z40" s="6"/>
+      <c r="AA40" s="5"/>
+      <c r="AB40" s="7"/>
+      <c r="AC40" s="6"/>
+      <c r="AD40" s="6"/>
+      <c r="AE40" s="5"/>
+      <c r="AF40" s="7"/>
+      <c r="AG40" s="6"/>
+      <c r="AH40" s="6"/>
+      <c r="AI40" s="6"/>
+      <c r="AJ40" s="8"/>
+    </row>
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="19"/>
+      <c r="S41" s="6"/>
+      <c r="T41" s="6"/>
+      <c r="U41" s="6"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="7"/>
+      <c r="X41" s="6"/>
+      <c r="Y41" s="6"/>
+      <c r="Z41" s="6"/>
+      <c r="AA41" s="5"/>
+      <c r="AB41" s="7"/>
+      <c r="AC41" s="6"/>
+      <c r="AD41" s="6"/>
+      <c r="AE41" s="5"/>
+      <c r="AF41" s="7"/>
+      <c r="AG41" s="6"/>
+      <c r="AH41" s="6"/>
+      <c r="AI41" s="6"/>
+      <c r="AJ41" s="8"/>
+    </row>
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="19"/>
+      <c r="S42" s="6"/>
+      <c r="T42" s="6"/>
+      <c r="U42" s="6"/>
+      <c r="V42" s="5"/>
+      <c r="W42" s="7"/>
+      <c r="X42" s="6"/>
+      <c r="Y42" s="6"/>
+      <c r="Z42" s="6"/>
+      <c r="AA42" s="5"/>
+      <c r="AB42" s="7"/>
+      <c r="AC42" s="6"/>
+      <c r="AD42" s="6"/>
+      <c r="AE42" s="5"/>
+      <c r="AF42" s="7"/>
+      <c r="AG42" s="6"/>
+      <c r="AH42" s="6"/>
+      <c r="AI42" s="6"/>
+      <c r="AJ42" s="8"/>
+    </row>
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="19"/>
+      <c r="S43" s="6"/>
+      <c r="T43" s="6"/>
+      <c r="U43" s="6"/>
+      <c r="V43" s="5"/>
+      <c r="W43" s="7"/>
+      <c r="X43" s="6"/>
+      <c r="Y43" s="6"/>
+      <c r="Z43" s="6"/>
+      <c r="AA43" s="5"/>
+      <c r="AB43" s="7"/>
+      <c r="AC43" s="6"/>
+      <c r="AD43" s="6"/>
+      <c r="AE43" s="5"/>
+      <c r="AF43" s="7"/>
+      <c r="AG43" s="6"/>
+      <c r="AH43" s="6"/>
+      <c r="AI43" s="6"/>
+      <c r="AJ43" s="8"/>
+    </row>
+    <row r="44" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="9"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="28"/>
+      <c r="S44" s="11"/>
+      <c r="T44" s="11"/>
+      <c r="U44" s="11"/>
+      <c r="V44" s="10"/>
+      <c r="W44" s="12"/>
+      <c r="X44" s="11"/>
+      <c r="Y44" s="11"/>
+      <c r="Z44" s="11"/>
+      <c r="AA44" s="10"/>
+      <c r="AB44" s="12"/>
+      <c r="AC44" s="11"/>
+      <c r="AD44" s="11"/>
+      <c r="AE44" s="10"/>
+      <c r="AF44" s="12"/>
+      <c r="AG44" s="11"/>
+      <c r="AH44" s="11"/>
+      <c r="AI44" s="11"/>
+      <c r="AJ44" s="13"/>
+    </row>
+    <row r="45" spans="1:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
     <row r="46" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="B46" s="17" t="s">
         <v>19</v>
       </c>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
+      <c r="R46" s="17"/>
+      <c r="S46" s="17"/>
+      <c r="T46" s="17"/>
+      <c r="U46" s="17"/>
+      <c r="V46" s="17"/>
+      <c r="W46" s="17"/>
+      <c r="X46" s="17"/>
+      <c r="Y46" s="17"/>
+      <c r="Z46" s="17"/>
+      <c r="AA46" s="17"/>
+      <c r="AB46" s="17"/>
+      <c r="AC46" s="17"/>
+      <c r="AD46" s="17"/>
+      <c r="AE46" s="17"/>
+      <c r="AF46" s="17"/>
+      <c r="AG46" s="17"/>
+      <c r="AH46" s="17"/>
+      <c r="AI46" s="17"/>
+    </row>
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
+      <c r="R47" s="17"/>
+      <c r="S47" s="17"/>
+      <c r="T47" s="17"/>
+      <c r="U47" s="17"/>
+      <c r="V47" s="17"/>
+      <c r="W47" s="17"/>
+      <c r="X47" s="17"/>
+      <c r="Y47" s="17"/>
+      <c r="Z47" s="17"/>
+      <c r="AA47" s="17"/>
+      <c r="AB47" s="17"/>
+      <c r="AC47" s="17"/>
+      <c r="AD47" s="17"/>
+      <c r="AE47" s="17"/>
+      <c r="AF47" s="17"/>
+      <c r="AG47" s="17"/>
+      <c r="AH47" s="17"/>
+      <c r="AI47" s="17"/>
+    </row>
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
+      <c r="R48" s="17"/>
+      <c r="S48" s="17"/>
+      <c r="T48" s="17"/>
+      <c r="U48" s="17"/>
+      <c r="V48" s="17"/>
+      <c r="W48" s="17"/>
+      <c r="X48" s="17"/>
+      <c r="Y48" s="17"/>
+      <c r="Z48" s="17"/>
+      <c r="AA48" s="17"/>
+      <c r="AB48" s="17"/>
+      <c r="AC48" s="17"/>
+      <c r="AD48" s="17"/>
+      <c r="AE48" s="17"/>
+      <c r="AF48" s="17"/>
+      <c r="AG48" s="17"/>
+      <c r="AH48" s="17"/>
+      <c r="AI48" s="17"/>
     </row>
     <row r="49" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="AB49" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="6"/>
+      <c r="R49" s="19"/>
+      <c r="S49" s="6"/>
+      <c r="T49" s="6"/>
+      <c r="U49" s="6"/>
+      <c r="V49" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="W49" s="6"/>
+      <c r="X49" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y49" s="18"/>
+      <c r="Z49" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA49" s="6"/>
+      <c r="AB49" s="6"/>
+      <c r="AC49" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD49" s="18"/>
+      <c r="AE49" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF49" s="6"/>
+      <c r="AG49" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH49" s="18"/>
+      <c r="AI49" s="18"/>
+      <c r="AJ49" s="6"/>
+    </row>
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A50" s="19"/>
+      <c r="B50" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J50" s="19"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="19"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="19"/>
+      <c r="O50" s="19"/>
+      <c r="P50" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q50" s="19"/>
+      <c r="R50" s="19"/>
+      <c r="S50" s="19"/>
+      <c r="T50" s="19"/>
+      <c r="U50" s="19"/>
+      <c r="V50" s="19"/>
+      <c r="W50" s="19"/>
+      <c r="X50" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y50" s="19"/>
+      <c r="Z50" s="19"/>
+      <c r="AA50" s="19"/>
+      <c r="AB50" s="19"/>
+      <c r="AC50" s="19"/>
+      <c r="AD50" s="19"/>
+      <c r="AE50" s="19"/>
+      <c r="AF50" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG50" s="19"/>
+      <c r="AH50" s="19"/>
+      <c r="AI50" s="19"/>
+      <c r="AJ50" s="19"/>
+    </row>
     <row r="51" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A51" s="16"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="17"/>
-      <c r="K51" s="17"/>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
-      <c r="R51" s="17"/>
-      <c r="S51" s="17"/>
-      <c r="T51" s="17"/>
-      <c r="U51" s="17"/>
-      <c r="V51" s="17"/>
-      <c r="W51" s="17"/>
-      <c r="X51" s="17"/>
-      <c r="Y51" s="17"/>
-      <c r="Z51" s="17"/>
-      <c r="AA51" s="17"/>
-      <c r="AB51" s="17"/>
-      <c r="AC51" s="17"/>
-      <c r="AD51" s="17"/>
-      <c r="AE51" s="17"/>
-      <c r="AF51" s="17"/>
-      <c r="AG51" s="17"/>
-      <c r="AH51" s="17"/>
-      <c r="AI51" s="17"/>
-      <c r="AJ51" s="18"/>
+      <c r="A51" s="19"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="19"/>
+      <c r="O51" s="19"/>
+      <c r="P51" s="19"/>
+      <c r="Q51" s="19"/>
+      <c r="R51" s="19"/>
+      <c r="S51" s="19"/>
+      <c r="T51" s="19"/>
+      <c r="U51" s="19"/>
+      <c r="V51" s="19"/>
+      <c r="W51" s="19"/>
+      <c r="X51" s="19"/>
+      <c r="Y51" s="19"/>
+      <c r="Z51" s="19"/>
+      <c r="AA51" s="19"/>
+      <c r="AB51" s="19"/>
+      <c r="AC51" s="19"/>
+      <c r="AD51" s="19"/>
+      <c r="AE51" s="19"/>
+      <c r="AF51" s="19"/>
+      <c r="AG51" s="19"/>
+      <c r="AH51" s="19"/>
+      <c r="AI51" s="19"/>
+      <c r="AJ51" s="19"/>
     </row>
     <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52" s="19"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="20"/>
-      <c r="K52" s="20"/>
-      <c r="L52" s="20"/>
-      <c r="M52" s="20"/>
-      <c r="N52" s="20"/>
-      <c r="O52" s="20"/>
-      <c r="P52" s="20"/>
-      <c r="Q52" s="20"/>
-      <c r="R52" s="20"/>
-      <c r="S52" s="20"/>
-      <c r="T52" s="20"/>
-      <c r="U52" s="20"/>
-      <c r="V52" s="20"/>
-      <c r="W52" s="20"/>
-      <c r="X52" s="20"/>
-      <c r="Y52" s="20"/>
-      <c r="Z52" s="20"/>
-      <c r="AA52" s="20"/>
-      <c r="AB52" s="20"/>
-      <c r="AC52" s="20"/>
-      <c r="AD52" s="20"/>
-      <c r="AE52" s="20"/>
-      <c r="AF52" s="20"/>
-      <c r="AG52" s="20"/>
-      <c r="AH52" s="20"/>
-      <c r="AI52" s="20"/>
-      <c r="AJ52" s="21"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="19"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="19"/>
+      <c r="M52" s="19"/>
+      <c r="N52" s="19"/>
+      <c r="O52" s="19"/>
+      <c r="P52" s="19"/>
+      <c r="Q52" s="19"/>
+      <c r="R52" s="19"/>
+      <c r="S52" s="19"/>
+      <c r="T52" s="19"/>
+      <c r="U52" s="19"/>
+      <c r="V52" s="19"/>
+      <c r="W52" s="19"/>
+      <c r="X52" s="19"/>
+      <c r="Y52" s="19"/>
+      <c r="Z52" s="19"/>
+      <c r="AA52" s="19"/>
+      <c r="AB52" s="19"/>
+      <c r="AC52" s="19"/>
+      <c r="AD52" s="19"/>
+      <c r="AE52" s="19"/>
+      <c r="AF52" s="19"/>
+      <c r="AG52" s="19"/>
+      <c r="AH52" s="19"/>
+      <c r="AI52" s="19"/>
+      <c r="AJ52" s="19"/>
     </row>
     <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53" s="19"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="20"/>
-      <c r="J53" s="20"/>
-      <c r="K53" s="20"/>
-      <c r="L53" s="20"/>
-      <c r="M53" s="20"/>
-      <c r="N53" s="20"/>
-      <c r="O53" s="20"/>
-      <c r="P53" s="20"/>
-      <c r="Q53" s="20"/>
-      <c r="R53" s="20"/>
-      <c r="S53" s="20"/>
-      <c r="T53" s="20"/>
-      <c r="U53" s="20"/>
-      <c r="V53" s="20"/>
-      <c r="W53" s="20"/>
-      <c r="X53" s="20"/>
-      <c r="Y53" s="20"/>
-      <c r="Z53" s="20"/>
-      <c r="AA53" s="20"/>
-      <c r="AB53" s="20"/>
-      <c r="AC53" s="20"/>
-      <c r="AD53" s="20"/>
-      <c r="AE53" s="20"/>
-      <c r="AF53" s="20"/>
-      <c r="AG53" s="20"/>
-      <c r="AH53" s="20"/>
-      <c r="AI53" s="20"/>
-      <c r="AJ53" s="21"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="19"/>
+      <c r="K53" s="19"/>
+      <c r="L53" s="19"/>
+      <c r="M53" s="19"/>
+      <c r="N53" s="19"/>
+      <c r="O53" s="19"/>
+      <c r="P53" s="19"/>
+      <c r="Q53" s="19"/>
+      <c r="R53" s="19"/>
+      <c r="S53" s="19"/>
+      <c r="T53" s="19"/>
+      <c r="U53" s="19"/>
+      <c r="V53" s="19"/>
+      <c r="W53" s="19"/>
+      <c r="X53" s="19"/>
+      <c r="Y53" s="19"/>
+      <c r="Z53" s="19"/>
+      <c r="AA53" s="19"/>
+      <c r="AB53" s="19"/>
+      <c r="AC53" s="19"/>
+      <c r="AD53" s="19"/>
+      <c r="AE53" s="19"/>
+      <c r="AF53" s="19"/>
+      <c r="AG53" s="19"/>
+      <c r="AH53" s="19"/>
+      <c r="AI53" s="19"/>
+      <c r="AJ53" s="19"/>
     </row>
     <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54" s="19"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="20"/>
-      <c r="J54" s="20"/>
-      <c r="K54" s="20"/>
-      <c r="L54" s="20"/>
-      <c r="M54" s="20"/>
-      <c r="N54" s="20"/>
-      <c r="O54" s="20"/>
-      <c r="P54" s="20"/>
-      <c r="Q54" s="20"/>
-      <c r="R54" s="20"/>
-      <c r="S54" s="20"/>
-      <c r="T54" s="20"/>
-      <c r="U54" s="20"/>
-      <c r="V54" s="20"/>
-      <c r="W54" s="20"/>
-      <c r="X54" s="20"/>
-      <c r="Y54" s="20"/>
-      <c r="Z54" s="20"/>
-      <c r="AA54" s="20"/>
-      <c r="AB54" s="20"/>
-      <c r="AC54" s="20"/>
-      <c r="AD54" s="20"/>
-      <c r="AE54" s="20"/>
-      <c r="AF54" s="20"/>
-      <c r="AG54" s="20"/>
-      <c r="AH54" s="20"/>
-      <c r="AI54" s="20"/>
-      <c r="AJ54" s="21"/>
-    </row>
-    <row r="55" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="22"/>
-      <c r="B55" s="23"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="23"/>
-      <c r="H55" s="23"/>
-      <c r="I55" s="23"/>
-      <c r="J55" s="23"/>
-      <c r="K55" s="23"/>
-      <c r="L55" s="23"/>
-      <c r="M55" s="23"/>
-      <c r="N55" s="23"/>
-      <c r="O55" s="23"/>
-      <c r="P55" s="23"/>
-      <c r="Q55" s="23"/>
-      <c r="R55" s="23"/>
-      <c r="S55" s="23"/>
-      <c r="T55" s="23"/>
-      <c r="U55" s="23"/>
-      <c r="V55" s="23"/>
-      <c r="W55" s="23"/>
-      <c r="X55" s="23"/>
-      <c r="Y55" s="23"/>
-      <c r="Z55" s="23"/>
-      <c r="AA55" s="23"/>
-      <c r="AB55" s="23"/>
-      <c r="AC55" s="23"/>
-      <c r="AD55" s="23"/>
-      <c r="AE55" s="23"/>
-      <c r="AF55" s="23"/>
-      <c r="AG55" s="23"/>
-      <c r="AH55" s="23"/>
-      <c r="AI55" s="23"/>
-      <c r="AJ55" s="24"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="19"/>
+      <c r="K54" s="19"/>
+      <c r="L54" s="19"/>
+      <c r="M54" s="19"/>
+      <c r="N54" s="19"/>
+      <c r="O54" s="19"/>
+      <c r="P54" s="19"/>
+      <c r="Q54" s="19"/>
+      <c r="R54" s="19"/>
+      <c r="S54" s="19"/>
+      <c r="T54" s="19"/>
+      <c r="U54" s="19"/>
+      <c r="V54" s="19"/>
+      <c r="W54" s="19"/>
+      <c r="X54" s="19"/>
+      <c r="Y54" s="19"/>
+      <c r="Z54" s="19"/>
+      <c r="AA54" s="19"/>
+      <c r="AB54" s="19"/>
+      <c r="AC54" s="19"/>
+      <c r="AD54" s="19"/>
+      <c r="AE54" s="19"/>
+      <c r="AF54" s="19"/>
+      <c r="AG54" s="19"/>
+      <c r="AH54" s="19"/>
+      <c r="AI54" s="19"/>
+      <c r="AJ54" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="B6:D7"/>
-    <mergeCell ref="Z6:AB7"/>
+  <mergeCells count="19">
+    <mergeCell ref="R6:U7"/>
+    <mergeCell ref="Z6:AC7"/>
+    <mergeCell ref="E3:AE4"/>
+    <mergeCell ref="B46:AI48"/>
+    <mergeCell ref="X49:Y49"/>
+    <mergeCell ref="AC49:AD49"/>
+    <mergeCell ref="AG49:AI49"/>
+    <mergeCell ref="A6:E7"/>
     <mergeCell ref="AF14:AJ14"/>
     <mergeCell ref="F6:G7"/>
     <mergeCell ref="N6:O7"/>
     <mergeCell ref="V6:W7"/>
     <mergeCell ref="AD6:AE7"/>
-    <mergeCell ref="J6:L7"/>
-    <mergeCell ref="R6:T7"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:P14"/>
     <mergeCell ref="Q14:V14"/>
     <mergeCell ref="W14:AA14"/>
     <mergeCell ref="AB14:AE14"/>
+    <mergeCell ref="J6:M7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.2" right="0.2" top="0.2" bottom="0.2" header="0.3" footer="0.3"/>
+  <pageMargins left="0.2" right="0.2" top="0.7" bottom="0.2" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>